--- a/Deliverable 3/Use Case-to-Unit Test Relationship.xlsx
+++ b/Deliverable 3/Use Case-to-Unit Test Relationship.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edward\Documents\GitHub\Pizza\Deliverable 3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Pizza-Aholics Anonymous Application</t>
   </si>
@@ -63,6 +58,87 @@
   </si>
   <si>
     <t>ProviderList</t>
+  </si>
+  <si>
+    <t>Get manager info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccountManagerController                            ManagerList                       </t>
+  </si>
+  <si>
+    <t>GetManager                                                        GetManager</t>
+  </si>
+  <si>
+    <t>Get Admin info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccountManagerController                            AdminList                   </t>
+  </si>
+  <si>
+    <t>GetAdmin                                                                  GetAdmin</t>
+  </si>
+  <si>
+    <t>Add Member</t>
+  </si>
+  <si>
+    <t>AccountManagerController                          MemberList</t>
+  </si>
+  <si>
+    <t>AddMember                                                        InsertMember</t>
+  </si>
+  <si>
+    <t>Update Member</t>
+  </si>
+  <si>
+    <t>Delete Member</t>
+  </si>
+  <si>
+    <t>Add Provider</t>
+  </si>
+  <si>
+    <t>AccountManagerController                         ProviderList</t>
+  </si>
+  <si>
+    <t>DeleteMember                                                        DeleteMember</t>
+  </si>
+  <si>
+    <t>UpdateMember                                                        UpdateMember</t>
+  </si>
+  <si>
+    <t>AddProvider                                                        AddProvider</t>
+  </si>
+  <si>
+    <t>Update Provider</t>
+  </si>
+  <si>
+    <t>DeleteProvider                                                       DeleteProvider</t>
+  </si>
+  <si>
+    <t>UpdateProvider                                                       UpdateProvider</t>
+  </si>
+  <si>
+    <t>Delete Provider</t>
+  </si>
+  <si>
+    <t>Update member status</t>
+  </si>
+  <si>
+    <t>AccountManagerController                         MemberList</t>
+  </si>
+  <si>
+    <t>Updatemember                                                        UpdateMember</t>
+  </si>
+  <si>
+    <t>Authenticate member</t>
+  </si>
+  <si>
+    <t>ValidateMember                                              GetMember</t>
+  </si>
+  <si>
+    <t>Authenticate provider</t>
+  </si>
+  <si>
+    <t>ValidateProvider                                          GetProvider</t>
   </si>
 </sst>
 </file>
@@ -134,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -153,9 +229,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -425,7 +507,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -433,21 +515,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D8"/>
+  <dimension ref="A2:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="5"/>
-    <col min="2" max="2" width="34.90625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="5"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="34.90625" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -457,7 +539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -471,7 +553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -485,7 +567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -493,7 +575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -507,7 +589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
@@ -515,6 +597,230 @@
       </c>
       <c r="D8" s="7" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>3</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>4</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>5</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>6</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>7</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>8</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>9</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>10</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>11</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>12</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>13</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>14</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>15</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>16</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>17</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>18</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Deliverable 3/Use Case-to-Unit Test Relationship.xlsx
+++ b/Deliverable 3/Use Case-to-Unit Test Relationship.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>Pizza-Aholics Anonymous Application</t>
   </si>
@@ -139,6 +139,60 @@
   </si>
   <si>
     <t>ValidateProvider                                          GetProvider</t>
+  </si>
+  <si>
+    <t>Get Member Service Report</t>
+  </si>
+  <si>
+    <t>Schedule weekly member report</t>
+  </si>
+  <si>
+    <t>Generate all weekly member reports</t>
+  </si>
+  <si>
+    <t>Update weekly provider report schduler</t>
+  </si>
+  <si>
+    <t>Generate all weekly provider reports</t>
+  </si>
+  <si>
+    <t>Account payable report</t>
+  </si>
+  <si>
+    <t>Ger Provider directory</t>
+  </si>
+  <si>
+    <t>Add service record</t>
+  </si>
+  <si>
+    <t>Verify weekly service fee</t>
+  </si>
+  <si>
+    <t>verify weekly recorded services</t>
+  </si>
+  <si>
+    <t>Delete Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccountServiceController                           ProviderDirectory                     </t>
+  </si>
+  <si>
+    <t>AddService                                                         AddService</t>
+  </si>
+  <si>
+    <t>DeleteService                                                         DeleteService</t>
+  </si>
+  <si>
+    <t>Update Service</t>
+  </si>
+  <si>
+    <t>UpdateService                                                         UpdateService</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccountServiceController                           ServicerRecordList                    </t>
+  </si>
+  <si>
+    <t>AddServiceRecord                                                         AddServiceRecord</t>
   </si>
 </sst>
 </file>
@@ -515,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D30"/>
+  <dimension ref="A2:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +811,9 @@
       <c r="A20" s="8">
         <v>14</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
@@ -765,7 +821,9 @@
       <c r="A21" s="8">
         <v>15</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
     </row>
@@ -773,15 +831,19 @@
       <c r="A22" s="8">
         <v>16</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>17</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
     </row>
@@ -789,7 +851,9 @@
       <c r="A24" s="8">
         <v>18</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B24" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
     </row>
@@ -797,30 +861,96 @@
       <c r="A25" s="5">
         <v>19</v>
       </c>
+      <c r="B25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>21</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>22</v>
       </c>
+      <c r="B28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>24</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>25</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>26</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Deliverable 3/Use Case-to-Unit Test Relationship.xlsx
+++ b/Deliverable 3/Use Case-to-Unit Test Relationship.xlsx
@@ -561,7 +561,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Deliverable 3/Use Case-to-Unit Test Relationship.xlsx
+++ b/Deliverable 3/Use Case-to-Unit Test Relationship.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhao\Documents\GitHub\Pizza\Deliverable 3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7668"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
   <si>
     <t>Pizza-Aholics Anonymous Application</t>
   </si>
@@ -156,12 +161,6 @@
     <t>Generate all weekly provider reports</t>
   </si>
   <si>
-    <t>Account payable report</t>
-  </si>
-  <si>
-    <t>Ger Provider directory</t>
-  </si>
-  <si>
     <t>Add service record</t>
   </si>
   <si>
@@ -193,6 +192,57 @@
   </si>
   <si>
     <t>AddServiceRecord                                                         AddServiceRecord</t>
+  </si>
+  <si>
+    <t>ManageReportController--ScheduleList--Schedule</t>
+  </si>
+  <si>
+    <t>ManageReportController--ProvierReport</t>
+  </si>
+  <si>
+    <t>ManageReportController--AccountPayableReport</t>
+  </si>
+  <si>
+    <t>ManageReportController--MemberServiceReport File</t>
+  </si>
+  <si>
+    <t>GetMemberReport--GetFromFile</t>
+  </si>
+  <si>
+    <t>GenerateMemberServiceReport--SaveToFile</t>
+  </si>
+  <si>
+    <t>ScheduleMemberReport--SearchScheduler--SetMemberSchedule</t>
+  </si>
+  <si>
+    <t>UpdateProviderReport--SearchSchedule-SetSchedule</t>
+  </si>
+  <si>
+    <t>GenerateProviderReport--SaveToFile</t>
+  </si>
+  <si>
+    <t>Get Account payable report</t>
+  </si>
+  <si>
+    <t>GetAccountPayableReport--GetFromFile</t>
+  </si>
+  <si>
+    <t>Get Provider directory</t>
+  </si>
+  <si>
+    <t>ManageServiceController</t>
+  </si>
+  <si>
+    <t>GetProviderDirectory</t>
+  </si>
+  <si>
+    <t>ManageReportController--MemberList-Member</t>
+  </si>
+  <si>
+    <t>VerifyRecordedServices--SearchMember--GetMemberStatus</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -291,7 +341,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -561,7 +611,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -569,31 +619,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D32"/>
+  <dimension ref="A2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="5"/>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="5"/>
+    <col min="2" max="2" width="34.88671875" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -607,7 +657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -621,7 +671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -629,7 +679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -643,7 +693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
@@ -653,7 +703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>3</v>
       </c>
@@ -667,7 +717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -681,7 +731,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -695,7 +745,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -709,7 +759,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -723,7 +773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -737,7 +787,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -751,7 +801,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -765,7 +815,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -779,7 +829,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -793,7 +843,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -807,150 +857,203 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>14</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>15</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>16</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>17</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>18</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>19</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>20</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>21</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>22</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>23</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>24</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>26</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Deliverable 3/Use Case-to-Unit Test Relationship.xlsx
+++ b/Deliverable 3/Use Case-to-Unit Test Relationship.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhao\Documents\GitHub\Pizza\Deliverable 3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7668"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t>Pizza-Aholics Anonymous Application</t>
   </si>
@@ -47,9 +42,6 @@
     <t>Unit Test Traits</t>
   </si>
   <si>
-    <t>Unit Test Name</t>
-  </si>
-  <si>
     <t>GetMember</t>
   </si>
   <si>
@@ -149,9 +141,6 @@
     <t>Get Member Service Report</t>
   </si>
   <si>
-    <t>Schedule weekly member report</t>
-  </si>
-  <si>
     <t>Generate all weekly member reports</t>
   </si>
   <si>
@@ -194,55 +183,58 @@
     <t>AddServiceRecord                                                         AddServiceRecord</t>
   </si>
   <si>
-    <t>ManageReportController--ScheduleList--Schedule</t>
-  </si>
-  <si>
-    <t>ManageReportController--ProvierReport</t>
-  </si>
-  <si>
-    <t>ManageReportController--AccountPayableReport</t>
-  </si>
-  <si>
-    <t>ManageReportController--MemberServiceReport File</t>
-  </si>
-  <si>
-    <t>GetMemberReport--GetFromFile</t>
-  </si>
-  <si>
-    <t>GenerateMemberServiceReport--SaveToFile</t>
-  </si>
-  <si>
-    <t>ScheduleMemberReport--SearchScheduler--SetMemberSchedule</t>
-  </si>
-  <si>
-    <t>UpdateProviderReport--SearchSchedule-SetSchedule</t>
-  </si>
-  <si>
-    <t>GenerateProviderReport--SaveToFile</t>
-  </si>
-  <si>
     <t>Get Account payable report</t>
   </si>
   <si>
-    <t>GetAccountPayableReport--GetFromFile</t>
-  </si>
-  <si>
     <t>Get Provider directory</t>
   </si>
   <si>
     <t>ManageServiceController</t>
   </si>
   <si>
-    <t>GetProviderDirectory</t>
-  </si>
-  <si>
-    <t>ManageReportController--MemberList-Member</t>
-  </si>
-  <si>
-    <t>VerifyRecordedServices--SearchMember--GetMemberStatus</t>
-  </si>
-  <si>
-    <t>*</t>
+    <t xml:space="preserve">AccountServiceController                           ProviderDirectory                 </t>
+  </si>
+  <si>
+    <t>ManageReportController                             ServiceRecordList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VerifyProviderReportServices                            VerifyServiceRecords </t>
+  </si>
+  <si>
+    <t>GetAllServices</t>
+  </si>
+  <si>
+    <t>ManageReportController</t>
+  </si>
+  <si>
+    <t>GetWeeklyOneMemberReport</t>
+  </si>
+  <si>
+    <t>Unit Test Function Name</t>
+  </si>
+  <si>
+    <t>ManageReportController                             ScheduleList                                      ProviderList                                      ServiceRecordList                               ProviderDirectory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GetWeeklyProviderReports       GetSchedule                                 GetAllProviders                                GetAllServiceRecordForProvider           GetService  </t>
+  </si>
+  <si>
+    <t>ManageReportController             ScheduleList                                MemberList                                                       ProviderDriectory                                            ServiceRecordList</t>
+  </si>
+  <si>
+    <t>GetWeeklyMemberReports                 GetSchedule                       GetAllMembers                                               GetService              GetAllServiceRecordForMember</t>
+  </si>
+  <si>
+    <t>UpdateMemberReportSchedule         UpdateSchedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ManageReportController                           ScheduleList                </t>
+  </si>
+  <si>
+    <t>ManageReportController     ScheduleList</t>
+  </si>
+  <si>
+    <t>UpdateProviderReportSchedule         UpdateSchedule</t>
   </si>
 </sst>
 </file>
@@ -282,7 +274,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,7 +289,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -329,19 +333,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -611,7 +622,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -621,29 +632,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="5"/>
-    <col min="2" max="2" width="34.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="5"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -654,10 +665,11 @@
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -668,393 +680,400 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>2</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>2</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="B14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="B16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
+      <c r="B17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>3</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="B18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>13</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="B19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>14</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="B20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>4</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="B21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>16</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="B22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>17</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="B23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>5</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>6</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>7</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>8</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>9</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>10</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>11</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>12</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>13</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>14</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>15</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>16</v>
-      </c>
-      <c r="B22" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>17</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>18</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>19</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>20</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>21</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>22</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>23</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>24</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>25</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>26</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>53</v>
-      </c>
+      <c r="B32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Deliverable 3/Use Case-to-Unit Test Relationship.xlsx
+++ b/Deliverable 3/Use Case-to-Unit Test Relationship.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
   <si>
     <t>Pizza-Aholics Anonymous Application</t>
   </si>
@@ -189,27 +189,6 @@
     <t>Get Provider directory</t>
   </si>
   <si>
-    <t>ManageServiceController</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccountServiceController                           ProviderDirectory                 </t>
-  </si>
-  <si>
-    <t>ManageReportController                             ServiceRecordList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VerifyProviderReportServices                            VerifyServiceRecords </t>
-  </si>
-  <si>
-    <t>GetAllServices</t>
-  </si>
-  <si>
-    <t>ManageReportController</t>
-  </si>
-  <si>
-    <t>GetWeeklyOneMemberReport</t>
-  </si>
-  <si>
     <t>Unit Test Function Name</t>
   </si>
   <si>
@@ -228,13 +207,49 @@
     <t>UpdateMemberReportSchedule         UpdateSchedule</t>
   </si>
   <si>
-    <t xml:space="preserve">ManageReportController                           ScheduleList                </t>
-  </si>
-  <si>
     <t>ManageReportController     ScheduleList</t>
   </si>
   <si>
     <t>UpdateProviderReportSchedule         UpdateSchedule</t>
+  </si>
+  <si>
+    <t>ManageReportController                             providerList                                                       ServiceRecordList</t>
+  </si>
+  <si>
+    <t>VerifyProviderReportServices                  GetProvider                                                      VerifyServiceRecords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccountServiceController                           ProviderList                     ServiceRecordList               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VerifyProviderReportFees                         GetProvider                                                    VerifyServiceRecords              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ManageReportController                           ScheduleList                        </t>
+  </si>
+  <si>
+    <t>ManageReportController                          scheduleList                                                 providerList                                                      serviceRecordList                                          providerDirectory</t>
+  </si>
+  <si>
+    <t>AccountPayableReport                         GetSchedule                                                     GetAllProviders                                             GetAllServiceRecordForProvider            GetService</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ManageServiceController                            ProviderDirectory        </t>
+  </si>
+  <si>
+    <t>GetAllServices                                                 GetServices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ManageReportController                            scheduleList                                                   MemberList                                                    serviceRecordList                                       providerDirectory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GetWeeklyOneMemberReport            GetSchedule                                                   GetMember                                                    GetAllServiceRecordForMember            GetService             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccountManagerController                       </t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -274,7 +289,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,18 +299,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,38 +321,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -622,7 +634,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -630,452 +642,525 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E32"/>
+  <dimension ref="A2:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="5"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
     <col min="2" max="2" width="34.85546875" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>5</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>7</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>9</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>11</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>13</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>15</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>17</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
-        <v>2</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>3</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>5</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="E23" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>18</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="B24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
         <v>19</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="B25" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <v>20</v>
       </c>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>6</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="B26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
         <v>21</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="B27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>23</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>24</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>25</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
         <v>26</v>
       </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <v>7</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
-        <v>8</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
-        <v>9</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
-        <v>10</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
-        <v>11</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>12</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>13</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>14</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>15</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>16</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>17</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>18</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>19</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>20</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>21</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>22</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>23</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>24</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="7" t="s">
+      <c r="B32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>25</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>26</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="9"/>
+      <c r="E32" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
